--- a/biology/Biologie cellulaire et moléculaire/Domaine_TIR/Domaine_TIR.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Domaine_TIR/Domaine_TIR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un domaine TIR (Toll/interleukin-1 receptor/resistance protein domain) est un domaine cytoplasmique commun aux eucaryotes et aux procaryotes impliqué dans l'immunité innée et la mort cellulaire. Il se compose de 135 à 160 acides aminées et présente généralement un feuillet β constitué de cinq brins parallèles (brins βA – βE) entouré de cinq hélices α (αA – αE)[1]. Ils [Qui ?]agissent par empilement de même domaine pour permettre le déclenchement de la voie de signalisation[2].
-Chez les mammifères, les domaines TIR se trouvent dans les récepteurs Toll-like (TLR), les récepteurs de l'interleukine-1 (IL-1R) et les protéines adaptatrices cytoplasmiques, telles que MyD88 (gène de réponse primaire de différenciation myéloïde 88) et MAL (protéine de type adaptateur MyD88)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un domaine TIR (Toll/interleukin-1 receptor/resistance protein domain) est un domaine cytoplasmique commun aux eucaryotes et aux procaryotes impliqué dans l'immunité innée et la mort cellulaire. Il se compose de 135 à 160 acides aminées et présente généralement un feuillet β constitué de cinq brins parallèles (brins βA – βE) entouré de cinq hélices α (αA – αE). Ils [Qui ?]agissent par empilement de même domaine pour permettre le déclenchement de la voie de signalisation.
+Chez les mammifères, les domaines TIR se trouvent dans les récepteurs Toll-like (TLR), les récepteurs de l'interleukine-1 (IL-1R) et les protéines adaptatrices cytoplasmiques, telles que MyD88 (gène de réponse primaire de différenciation myéloïde 88) et MAL (protéine de type adaptateur MyD88).
 </t>
         </is>
       </c>
